--- a/Code/Results/Cases/Case_5_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_68/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.497677267098538</v>
+        <v>1.335162643758053</v>
       </c>
       <c r="C2">
-        <v>0.9271483980914468</v>
+        <v>0.300772252573978</v>
       </c>
       <c r="D2">
-        <v>0.2214037763399404</v>
+        <v>0.2211918794791075</v>
       </c>
       <c r="E2">
-        <v>0.1774910958151352</v>
+        <v>0.1743160135658499</v>
       </c>
       <c r="F2">
-        <v>0.6877311088439839</v>
+        <v>1.186764554642728</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.18778472943238</v>
+        <v>0.1819088135301783</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.379021465113397</v>
+        <v>2.688228375106689</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.039699094366597</v>
+        <v>1.193101117243259</v>
       </c>
       <c r="C3">
-        <v>0.8098786812286392</v>
+        <v>0.2627201377795529</v>
       </c>
       <c r="D3">
-        <v>0.1964079816921469</v>
+        <v>0.2147181916055416</v>
       </c>
       <c r="E3">
-        <v>0.1579226624580556</v>
+        <v>0.1699470556310203</v>
       </c>
       <c r="F3">
-        <v>0.6485957269085958</v>
+        <v>1.191627199630915</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1673614886360042</v>
+        <v>0.1779213376851487</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.329006015575345</v>
+        <v>2.715148437091955</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.759198840628756</v>
+        <v>1.105774502175848</v>
       </c>
       <c r="C4">
-        <v>0.7379547609554891</v>
+        <v>0.2392675052076072</v>
       </c>
       <c r="D4">
-        <v>0.1811789601324278</v>
+        <v>0.2108020149816667</v>
       </c>
       <c r="E4">
-        <v>0.1460879554330319</v>
+        <v>0.1673444571717972</v>
       </c>
       <c r="F4">
-        <v>0.6267260072047591</v>
+        <v>1.195574216601983</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1551041090601402</v>
+        <v>0.1755854790393556</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.304135980029002</v>
+        <v>2.73416583233103</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.645016711743381</v>
+        <v>1.070164852877838</v>
       </c>
       <c r="C5">
-        <v>0.7086538979563102</v>
+        <v>0.2296886941643379</v>
       </c>
       <c r="D5">
-        <v>0.1749994426841823</v>
+        <v>0.20922101095708</v>
       </c>
       <c r="E5">
-        <v>0.14130637787353</v>
+        <v>0.1663040130096469</v>
       </c>
       <c r="F5">
-        <v>0.6183220280910788</v>
+        <v>1.197423874964493</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1501739344151787</v>
+        <v>0.1746618415502112</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.295377074206954</v>
+        <v>2.742539517129671</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.626062894674988</v>
+        <v>1.064250543345622</v>
       </c>
       <c r="C6">
-        <v>0.7037887210005351</v>
+        <v>0.2280968480349088</v>
       </c>
       <c r="D6">
-        <v>0.1739748408305957</v>
+        <v>0.2089593878207694</v>
       </c>
       <c r="E6">
-        <v>0.1405147687875008</v>
+        <v>0.166132465087756</v>
       </c>
       <c r="F6">
-        <v>0.6169562592902693</v>
+        <v>1.197745563055022</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1493590214014446</v>
+        <v>0.1745101770415047</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.294003155857155</v>
+        <v>2.743967593513531</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.757658504548033</v>
+        <v>1.105294350018198</v>
       </c>
       <c r="C7">
-        <v>0.7375595784511972</v>
+        <v>0.2391384089929716</v>
       </c>
       <c r="D7">
-        <v>0.1810955182611451</v>
+        <v>0.2107806326531261</v>
       </c>
       <c r="E7">
-        <v>0.1460233081052458</v>
+        <v>0.1673303438086258</v>
       </c>
       <c r="F7">
-        <v>0.6266106555789932</v>
+        <v>1.195598185755138</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1550373645806928</v>
+        <v>0.1755729082310964</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.304012402116768</v>
+        <v>2.734276238828414</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.339588423522002</v>
+        <v>1.28620170744523</v>
       </c>
       <c r="C8">
-        <v>0.8866899671126873</v>
+        <v>0.2876705791924223</v>
       </c>
       <c r="D8">
-        <v>0.2127585300335113</v>
+        <v>0.2189476337364766</v>
       </c>
       <c r="E8">
-        <v>0.1707038451566874</v>
+        <v>0.1727930170370797</v>
       </c>
       <c r="F8">
-        <v>0.6737673344019299</v>
+        <v>1.188241355749241</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1806802609141087</v>
+        <v>0.1805105650978476</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.360506670192734</v>
+        <v>2.696992880599851</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.488906337300989</v>
+        <v>1.640101407823238</v>
       </c>
       <c r="C9">
-        <v>1.180346648433499</v>
+        <v>0.3821194928075329</v>
       </c>
       <c r="D9">
-        <v>0.2759562807274136</v>
+        <v>0.2354249270776023</v>
       </c>
       <c r="E9">
-        <v>0.2207391054263752</v>
+        <v>0.1841392161275692</v>
       </c>
       <c r="F9">
-        <v>0.7850651377551543</v>
+        <v>1.181467067778968</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2335125306917973</v>
+        <v>0.1910881103853939</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.522096844626986</v>
+        <v>2.643705853848985</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.342291315928151</v>
+        <v>1.89952970033039</v>
       </c>
       <c r="C10">
-        <v>1.39773167371709</v>
+        <v>0.4510502535528076</v>
       </c>
       <c r="D10">
-        <v>0.3233170447199853</v>
+        <v>0.2478085709550868</v>
       </c>
       <c r="E10">
-        <v>0.2588095493674061</v>
+        <v>0.1928621402399386</v>
       </c>
       <c r="F10">
-        <v>0.8808457555358018</v>
+        <v>1.181191195775611</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2743414614559043</v>
+        <v>0.1994094103585979</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.67849277535683</v>
+        <v>2.616756535286981</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.733458057857547</v>
+        <v>2.017413814856639</v>
       </c>
       <c r="C11">
-        <v>1.497203406026301</v>
+        <v>0.4823048200645985</v>
       </c>
       <c r="D11">
-        <v>0.3451269402372219</v>
+        <v>0.2535018369542144</v>
       </c>
       <c r="E11">
-        <v>0.276489375972524</v>
+        <v>0.1969146005760578</v>
       </c>
       <c r="F11">
-        <v>0.9280791213789144</v>
+        <v>1.1820943959369</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2934654515930504</v>
+        <v>0.2033154431349828</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.759457845123023</v>
+        <v>2.60717058789507</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.882097540960558</v>
+        <v>2.062033205660384</v>
       </c>
       <c r="C12">
-        <v>1.534974619621892</v>
+        <v>0.4941249350540602</v>
       </c>
       <c r="D12">
-        <v>0.3534295595309658</v>
+        <v>0.2556662529640619</v>
       </c>
       <c r="E12">
-        <v>0.2832431656870753</v>
+        <v>0.1984612832275943</v>
       </c>
       <c r="F12">
-        <v>0.946548485008563</v>
+        <v>1.182584944859912</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3007967045016358</v>
+        <v>0.2048119639956951</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.791679630271688</v>
+        <v>2.603927060630582</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.850061060046755</v>
+        <v>2.052424575137138</v>
       </c>
       <c r="C13">
-        <v>1.526834978656666</v>
+        <v>0.4915799520407518</v>
       </c>
       <c r="D13">
-        <v>0.3516394053235814</v>
+        <v>0.2551997309854812</v>
       </c>
       <c r="E13">
-        <v>0.2817858841810192</v>
+        <v>0.1981276395424914</v>
       </c>
       <c r="F13">
-        <v>0.9425438886149209</v>
+        <v>1.182472681038618</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2992136384292508</v>
+        <v>0.2044888872728166</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.784668083447514</v>
+        <v>2.604608391963723</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.745675901210916</v>
+        <v>2.021085105990437</v>
       </c>
       <c r="C14">
-        <v>1.50030867395833</v>
+        <v>0.4832775782346062</v>
       </c>
       <c r="D14">
-        <v>0.3458090926584134</v>
+        <v>0.2536797350491469</v>
       </c>
       <c r="E14">
-        <v>0.2770437939172368</v>
+        <v>0.1970416046603205</v>
       </c>
       <c r="F14">
-        <v>0.9295865788051287</v>
+        <v>1.182131773554346</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2940667442921665</v>
+        <v>0.2034382140099211</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.762076536610465</v>
+        <v>2.606895984060571</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.681806548902273</v>
+        <v>2.001886015826756</v>
       </c>
       <c r="C15">
-        <v>1.484074633126738</v>
+        <v>0.4781901232918244</v>
       </c>
       <c r="D15">
-        <v>0.3422437199933057</v>
+        <v>0.2527497972755555</v>
       </c>
       <c r="E15">
-        <v>0.2741470013025449</v>
+        <v>0.1963779524327691</v>
       </c>
       <c r="F15">
-        <v>0.9217275543418282</v>
+        <v>1.181942318267559</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2909260866695575</v>
+        <v>0.2027969124447964</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.748446673940634</v>
+        <v>2.608347589271801</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.316794486859237</v>
+        <v>1.891822893805568</v>
       </c>
       <c r="C16">
-        <v>1.391244319280304</v>
+        <v>0.4490055834085069</v>
       </c>
       <c r="D16">
-        <v>0.3218975167539213</v>
+        <v>0.247437698095041</v>
       </c>
       <c r="E16">
-        <v>0.2576619752919882</v>
+        <v>0.1925989976332332</v>
       </c>
       <c r="F16">
-        <v>0.8778373524383198</v>
+        <v>1.181152920933698</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2731035980444432</v>
+        <v>0.1991565731298834</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.673411633901651</v>
+        <v>2.617436969079591</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.093688883289872</v>
+        <v>1.824267782389597</v>
       </c>
       <c r="C17">
-        <v>1.334458479349678</v>
+        <v>0.4310751692004828</v>
       </c>
       <c r="D17">
-        <v>0.3094875056428066</v>
+        <v>0.2441941553564391</v>
       </c>
       <c r="E17">
-        <v>0.2476461934098921</v>
+        <v>0.1903023182619847</v>
       </c>
       <c r="F17">
-        <v>0.8518887593203885</v>
+        <v>1.180932553014216</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2623181120909663</v>
+        <v>0.1969542709747287</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.629997704166016</v>
+        <v>2.623699182089439</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.965637102502228</v>
+        <v>1.785399640029425</v>
       </c>
       <c r="C18">
-        <v>1.301850276877587</v>
+        <v>0.4207524670915745</v>
       </c>
       <c r="D18">
-        <v>0.3023742014755868</v>
+        <v>0.242334198550509</v>
       </c>
       <c r="E18">
-        <v>0.2419189509615407</v>
+        <v>0.1889892708140266</v>
       </c>
       <c r="F18">
-        <v>0.8373048597468085</v>
+        <v>1.180902592998322</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.256165756061975</v>
+        <v>0.1956989167814811</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.605941703006096</v>
+        <v>2.627552556476019</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.922325255150497</v>
+        <v>1.772237513225036</v>
       </c>
       <c r="C19">
-        <v>1.29081832019466</v>
+        <v>0.4172557464395368</v>
       </c>
       <c r="D19">
-        <v>0.2999698241217743</v>
+        <v>0.2417054217744408</v>
       </c>
       <c r="E19">
-        <v>0.2399853718449805</v>
+        <v>0.1885460603415652</v>
       </c>
       <c r="F19">
-        <v>0.8324239367853181</v>
+        <v>1.18090905446131</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2540911660542804</v>
+        <v>0.1952758237506487</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.597949473955623</v>
+        <v>2.628900379027783</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.117410025938739</v>
+        <v>1.831460418920585</v>
       </c>
       <c r="C20">
-        <v>1.340497754008425</v>
+        <v>0.4329848904790197</v>
       </c>
       <c r="D20">
-        <v>0.3108059873082709</v>
+        <v>0.2445388527821137</v>
       </c>
       <c r="E20">
-        <v>0.2487088683756014</v>
+        <v>0.1905459819535906</v>
       </c>
       <c r="F20">
-        <v>0.8546153413525417</v>
+        <v>1.18094598981348</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2634608784621975</v>
+        <v>0.1971875346156509</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.63452349550775</v>
+        <v>2.623006513256058</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.77632168551412</v>
+        <v>2.030290846391722</v>
       </c>
       <c r="C21">
-        <v>1.508097119093293</v>
+        <v>0.4857166068559877</v>
       </c>
       <c r="D21">
-        <v>0.3475203645296148</v>
+        <v>0.2541259649037073</v>
       </c>
       <c r="E21">
-        <v>0.2784350065911951</v>
+        <v>0.1973602711460956</v>
       </c>
       <c r="F21">
-        <v>0.9333761536704941</v>
+        <v>1.182227870585621</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2955759990560551</v>
+        <v>0.2037463498735832</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.768668563969328</v>
+        <v>2.606213558173465</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.209996301670571</v>
+        <v>2.160116125128013</v>
       </c>
       <c r="C22">
-        <v>1.618246401493536</v>
+        <v>0.5200903207177134</v>
       </c>
       <c r="D22">
-        <v>0.371772907753865</v>
+        <v>0.2604411889329867</v>
       </c>
       <c r="E22">
-        <v>0.2982092662796276</v>
+        <v>0.201884341647812</v>
       </c>
       <c r="F22">
-        <v>0.9882797330999296</v>
+        <v>1.183931659366522</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3170916975352185</v>
+        <v>0.2081343037889809</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.865524812152785</v>
+        <v>2.597491932432945</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.978226825616218</v>
+        <v>2.090837707934838</v>
       </c>
       <c r="C23">
-        <v>1.559394509776837</v>
+        <v>0.501752805087051</v>
       </c>
       <c r="D23">
-        <v>0.358803335241177</v>
+        <v>0.2570661430362975</v>
       </c>
       <c r="E23">
-        <v>0.2876212343706754</v>
+        <v>0.1994633144937055</v>
       </c>
       <c r="F23">
-        <v>0.9586428933880455</v>
+        <v>1.182942877077252</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3055565499575579</v>
+        <v>0.2057830783651013</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.812937201034146</v>
+        <v>2.601939959950641</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.106685035445253</v>
+        <v>1.828208720656505</v>
       </c>
       <c r="C24">
-        <v>1.337767278755905</v>
+        <v>0.432121549894589</v>
       </c>
       <c r="D24">
-        <v>0.3102098355770693</v>
+        <v>0.2443830001204503</v>
       </c>
       <c r="E24">
-        <v>0.2482283370883493</v>
+        <v>0.1904357987219001</v>
       </c>
       <c r="F24">
-        <v>0.8533816165778632</v>
+        <v>1.180939613760842</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2629440839054809</v>
+        <v>0.1970820425541149</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.632474583008587</v>
+        <v>2.623318880439513</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.176719198755393</v>
+        <v>1.544460254482601</v>
       </c>
       <c r="C25">
-        <v>1.100687252547175</v>
+        <v>0.3566480535240544</v>
       </c>
       <c r="D25">
-        <v>0.2587160942325681</v>
+        <v>0.2309183347159376</v>
       </c>
       <c r="E25">
-        <v>0.2069973444809108</v>
+        <v>0.1810018623999667</v>
       </c>
       <c r="F25">
-        <v>0.7526913717371144</v>
+        <v>1.182476715971831</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2189020753686606</v>
+        <v>0.1881303467702224</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.472283597259235</v>
+        <v>2.655987105482751</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_68/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.335162643758053</v>
+        <v>3.497677267098538</v>
       </c>
       <c r="C2">
-        <v>0.300772252573978</v>
+        <v>0.9271483980915605</v>
       </c>
       <c r="D2">
-        <v>0.2211918794791075</v>
+        <v>0.2214037763398125</v>
       </c>
       <c r="E2">
-        <v>0.1743160135658499</v>
+        <v>0.1774910958151494</v>
       </c>
       <c r="F2">
-        <v>1.186764554642728</v>
+        <v>0.6877311088439839</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1819088135301783</v>
+        <v>0.1877847294323516</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.688228375106689</v>
+        <v>1.379021465113482</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.193101117243259</v>
+        <v>3.039699094366767</v>
       </c>
       <c r="C3">
-        <v>0.2627201377795529</v>
+        <v>0.8098786812286107</v>
       </c>
       <c r="D3">
-        <v>0.2147181916055416</v>
+        <v>0.1964079816921469</v>
       </c>
       <c r="E3">
-        <v>0.1699470556310203</v>
+        <v>0.1579226624580485</v>
       </c>
       <c r="F3">
-        <v>1.191627199630915</v>
+        <v>0.6485957269085816</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1779213376851487</v>
+        <v>0.1673614886361037</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.715148437091955</v>
+        <v>1.329006015575459</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.105774502175848</v>
+        <v>2.759198840628756</v>
       </c>
       <c r="C4">
-        <v>0.2392675052076072</v>
+        <v>0.7379547609557733</v>
       </c>
       <c r="D4">
-        <v>0.2108020149816667</v>
+        <v>0.1811789601322147</v>
       </c>
       <c r="E4">
-        <v>0.1673444571717972</v>
+        <v>0.1460879554330496</v>
       </c>
       <c r="F4">
-        <v>1.195574216601983</v>
+        <v>0.6267260072047591</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1755854790393556</v>
+        <v>0.1551041090601259</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.73416583233103</v>
+        <v>1.304135980028917</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.070164852877838</v>
+        <v>2.645016711743608</v>
       </c>
       <c r="C5">
-        <v>0.2296886941643379</v>
+        <v>0.7086538979563386</v>
       </c>
       <c r="D5">
-        <v>0.20922101095708</v>
+        <v>0.1749994426841397</v>
       </c>
       <c r="E5">
-        <v>0.1663040130096469</v>
+        <v>0.1413063778735335</v>
       </c>
       <c r="F5">
-        <v>1.197423874964493</v>
+        <v>0.618322028091093</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1746618415502112</v>
+        <v>0.1501739344151787</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.742539517129671</v>
+        <v>1.295377074207011</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.064250543345622</v>
+        <v>2.626062894674988</v>
       </c>
       <c r="C6">
-        <v>0.2280968480349088</v>
+        <v>0.7037887210006488</v>
       </c>
       <c r="D6">
-        <v>0.2089593878207694</v>
+        <v>0.173974840830482</v>
       </c>
       <c r="E6">
-        <v>0.166132465087756</v>
+        <v>0.1405147687874937</v>
       </c>
       <c r="F6">
-        <v>1.197745563055022</v>
+        <v>0.6169562592902551</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1745101770415047</v>
+        <v>0.1493590214013878</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.743967593513531</v>
+        <v>1.294003155857141</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.105294350018198</v>
+        <v>2.75765850454809</v>
       </c>
       <c r="C7">
-        <v>0.2391384089929716</v>
+        <v>0.7375595784510836</v>
       </c>
       <c r="D7">
-        <v>0.2107806326531261</v>
+        <v>0.1810955182614293</v>
       </c>
       <c r="E7">
-        <v>0.1673303438086258</v>
+        <v>0.1460233081052564</v>
       </c>
       <c r="F7">
-        <v>1.195598185755138</v>
+        <v>0.6266106555789861</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1755729082310964</v>
+        <v>0.1550373645807426</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.734276238828414</v>
+        <v>1.304012402116768</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.28620170744523</v>
+        <v>3.339588423522173</v>
       </c>
       <c r="C8">
-        <v>0.2876705791924223</v>
+        <v>0.8866899671125452</v>
       </c>
       <c r="D8">
-        <v>0.2189476337364766</v>
+        <v>0.2127585300335681</v>
       </c>
       <c r="E8">
-        <v>0.1727930170370797</v>
+        <v>0.1707038451566874</v>
       </c>
       <c r="F8">
-        <v>1.188241355749241</v>
+        <v>0.6737673344019157</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1805105650978476</v>
+        <v>0.1806802609141585</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.696992880599851</v>
+        <v>1.360506670192734</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.640101407823238</v>
+        <v>4.488906337300705</v>
       </c>
       <c r="C9">
-        <v>0.3821194928075329</v>
+        <v>1.18034664843384</v>
       </c>
       <c r="D9">
-        <v>0.2354249270776023</v>
+        <v>0.2759562807275699</v>
       </c>
       <c r="E9">
-        <v>0.1841392161275692</v>
+        <v>0.2207391054263894</v>
       </c>
       <c r="F9">
-        <v>1.181467067778968</v>
+        <v>0.7850651377551685</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1910881103853939</v>
+        <v>0.2335125306917973</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.643705853848985</v>
+        <v>1.522096844627015</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.89952970033039</v>
+        <v>5.342291315928207</v>
       </c>
       <c r="C10">
-        <v>0.4510502535528076</v>
+        <v>1.397731673716805</v>
       </c>
       <c r="D10">
-        <v>0.2478085709550868</v>
+        <v>0.3233170447198006</v>
       </c>
       <c r="E10">
-        <v>0.1928621402399386</v>
+        <v>0.2588095493674132</v>
       </c>
       <c r="F10">
-        <v>1.181191195775611</v>
+        <v>0.8808457555358018</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1994094103585979</v>
+        <v>0.2743414614559327</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.616756535286981</v>
+        <v>1.67849277535683</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.017413814856639</v>
+        <v>5.73345805785732</v>
       </c>
       <c r="C11">
-        <v>0.4823048200645985</v>
+        <v>1.497203406026244</v>
       </c>
       <c r="D11">
-        <v>0.2535018369542144</v>
+        <v>0.3451269402370372</v>
       </c>
       <c r="E11">
-        <v>0.1969146005760578</v>
+        <v>0.2764893759725098</v>
       </c>
       <c r="F11">
-        <v>1.1820943959369</v>
+        <v>0.9280791213789001</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2033154431349828</v>
+        <v>0.2934654515930788</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.60717058789507</v>
+        <v>1.759457845122995</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.062033205660384</v>
+        <v>5.882097540960729</v>
       </c>
       <c r="C12">
-        <v>0.4941249350540602</v>
+        <v>1.534974619622119</v>
       </c>
       <c r="D12">
-        <v>0.2556662529640619</v>
+        <v>0.3534295595307952</v>
       </c>
       <c r="E12">
-        <v>0.1984612832275943</v>
+        <v>0.2832431656870682</v>
       </c>
       <c r="F12">
-        <v>1.182584944859912</v>
+        <v>0.9465484850085772</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2048119639956951</v>
+        <v>0.3007967045016215</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.603927060630582</v>
+        <v>1.791679630271688</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.052424575137138</v>
+        <v>5.850061060046301</v>
       </c>
       <c r="C13">
-        <v>0.4915799520407518</v>
+        <v>1.526834978656495</v>
       </c>
       <c r="D13">
-        <v>0.2551997309854812</v>
+        <v>0.3516394053237804</v>
       </c>
       <c r="E13">
-        <v>0.1981276395424914</v>
+        <v>0.2817858841810192</v>
       </c>
       <c r="F13">
-        <v>1.182472681038618</v>
+        <v>0.9425438886149351</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2044888872728166</v>
+        <v>0.2992136384292365</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.604608391963723</v>
+        <v>1.784668083447514</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.021085105990437</v>
+        <v>5.745675901210802</v>
       </c>
       <c r="C14">
-        <v>0.4832775782346062</v>
+        <v>1.500308673958273</v>
       </c>
       <c r="D14">
-        <v>0.2536797350491469</v>
+        <v>0.3458090926583708</v>
       </c>
       <c r="E14">
-        <v>0.1970416046603205</v>
+        <v>0.2770437939172226</v>
       </c>
       <c r="F14">
-        <v>1.182131773554346</v>
+        <v>0.9295865788051429</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2034382140099211</v>
+        <v>0.2940667442921807</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.606895984060571</v>
+        <v>1.762076536610493</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.001886015826756</v>
+        <v>5.681806548902159</v>
       </c>
       <c r="C15">
-        <v>0.4781901232918244</v>
+        <v>1.484074633126625</v>
       </c>
       <c r="D15">
-        <v>0.2527497972755555</v>
+        <v>0.3422437199933199</v>
       </c>
       <c r="E15">
-        <v>0.1963779524327691</v>
+        <v>0.2741470013025449</v>
       </c>
       <c r="F15">
-        <v>1.181942318267559</v>
+        <v>0.9217275543418424</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2027969124447964</v>
+        <v>0.2909260866695149</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.608347589271801</v>
+        <v>1.748446673940748</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.891822893805568</v>
+        <v>5.31679448685901</v>
       </c>
       <c r="C16">
-        <v>0.4490055834085069</v>
+        <v>1.391244319280304</v>
       </c>
       <c r="D16">
-        <v>0.247437698095041</v>
+        <v>0.3218975167540634</v>
       </c>
       <c r="E16">
-        <v>0.1925989976332332</v>
+        <v>0.2576619752920024</v>
       </c>
       <c r="F16">
-        <v>1.181152920933698</v>
+        <v>0.8778373524382914</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1991565731298834</v>
+        <v>0.2731035980444005</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.617436969079591</v>
+        <v>1.673411633901651</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.824267782389597</v>
+        <v>5.09368888329027</v>
       </c>
       <c r="C17">
-        <v>0.4310751692004828</v>
+        <v>1.334458479349792</v>
       </c>
       <c r="D17">
-        <v>0.2441941553564391</v>
+        <v>0.3094875056426929</v>
       </c>
       <c r="E17">
-        <v>0.1903023182619847</v>
+        <v>0.2476461934098708</v>
       </c>
       <c r="F17">
-        <v>1.180932553014216</v>
+        <v>0.8518887593204028</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1969542709747287</v>
+        <v>0.2623181120909663</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.623699182089439</v>
+        <v>1.629997704165987</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.785399640029425</v>
+        <v>4.965637102502058</v>
       </c>
       <c r="C18">
-        <v>0.4207524670915745</v>
+        <v>1.301850276877985</v>
       </c>
       <c r="D18">
-        <v>0.242334198550509</v>
+        <v>0.302374201475601</v>
       </c>
       <c r="E18">
-        <v>0.1889892708140266</v>
+        <v>0.2419189509615549</v>
       </c>
       <c r="F18">
-        <v>1.180902592998322</v>
+        <v>0.8373048597468227</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1956989167814811</v>
+        <v>0.2561657560620034</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.627552556476019</v>
+        <v>1.605941703006124</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.772237513225036</v>
+        <v>4.92232525515027</v>
       </c>
       <c r="C19">
-        <v>0.4172557464395368</v>
+        <v>1.290818320194433</v>
       </c>
       <c r="D19">
-        <v>0.2417054217744408</v>
+        <v>0.2999698241219306</v>
       </c>
       <c r="E19">
-        <v>0.1885460603415652</v>
+        <v>0.2399853718449734</v>
       </c>
       <c r="F19">
-        <v>1.18090905446131</v>
+        <v>0.8324239367853181</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1952758237506487</v>
+        <v>0.2540911660541525</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.628900379027783</v>
+        <v>1.597949473955566</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.831460418920585</v>
+        <v>5.117410025938796</v>
       </c>
       <c r="C20">
-        <v>0.4329848904790197</v>
+        <v>1.340497754008652</v>
       </c>
       <c r="D20">
-        <v>0.2445388527821137</v>
+        <v>0.3108059873083562</v>
       </c>
       <c r="E20">
-        <v>0.1905459819535906</v>
+        <v>0.2487088683756156</v>
       </c>
       <c r="F20">
-        <v>1.18094598981348</v>
+        <v>0.8546153413525417</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1971875346156509</v>
+        <v>0.263460878462169</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.623006513256058</v>
+        <v>1.634523495507722</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.030290846391722</v>
+        <v>5.776321685514063</v>
       </c>
       <c r="C21">
-        <v>0.4857166068559877</v>
+        <v>1.508097119093236</v>
       </c>
       <c r="D21">
-        <v>0.2541259649037073</v>
+        <v>0.3475203645297853</v>
       </c>
       <c r="E21">
-        <v>0.1973602711460956</v>
+        <v>0.2784350065911951</v>
       </c>
       <c r="F21">
-        <v>1.182227870585621</v>
+        <v>0.9333761536704799</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2037463498735832</v>
+        <v>0.2955759990560836</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.606213558173465</v>
+        <v>1.768668563969328</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.160116125128013</v>
+        <v>6.20999630167023</v>
       </c>
       <c r="C22">
-        <v>0.5200903207177134</v>
+        <v>1.618246401493195</v>
       </c>
       <c r="D22">
-        <v>0.2604411889329867</v>
+        <v>0.3717729077538507</v>
       </c>
       <c r="E22">
-        <v>0.201884341647812</v>
+        <v>0.2982092662796134</v>
       </c>
       <c r="F22">
-        <v>1.183931659366522</v>
+        <v>0.9882797330999296</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2081343037889809</v>
+        <v>0.3170916975352185</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.597491932432945</v>
+        <v>1.865524812152898</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.090837707934838</v>
+        <v>5.978226825616048</v>
       </c>
       <c r="C23">
-        <v>0.501752805087051</v>
+        <v>1.559394509776837</v>
       </c>
       <c r="D23">
-        <v>0.2570661430362975</v>
+        <v>0.3588033352412481</v>
       </c>
       <c r="E23">
-        <v>0.1994633144937055</v>
+        <v>0.2876212343706825</v>
       </c>
       <c r="F23">
-        <v>1.182942877077252</v>
+        <v>0.9586428933880455</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2057830783651013</v>
+        <v>0.3055565499574442</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.601939959950641</v>
+        <v>1.812937201034146</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.828208720656505</v>
+        <v>5.106685035445537</v>
       </c>
       <c r="C24">
-        <v>0.432121549894589</v>
+        <v>1.337767278755621</v>
       </c>
       <c r="D24">
-        <v>0.2443830001204503</v>
+        <v>0.3102098355769272</v>
       </c>
       <c r="E24">
-        <v>0.1904357987219001</v>
+        <v>0.2482283370883636</v>
       </c>
       <c r="F24">
-        <v>1.180939613760842</v>
+        <v>0.8533816165778774</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1970820425541149</v>
+        <v>0.2629440839054382</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.623318880439513</v>
+        <v>1.632474583008502</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.544460254482601</v>
+        <v>4.176719198755222</v>
       </c>
       <c r="C25">
-        <v>0.3566480535240544</v>
+        <v>1.100687252546948</v>
       </c>
       <c r="D25">
-        <v>0.2309183347159376</v>
+        <v>0.2587160942324118</v>
       </c>
       <c r="E25">
-        <v>0.1810018623999667</v>
+        <v>0.2069973444809108</v>
       </c>
       <c r="F25">
-        <v>1.182476715971831</v>
+        <v>0.7526913717371144</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1881303467702224</v>
+        <v>0.2189020753686322</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.655987105482751</v>
+        <v>1.472283597259207</v>
       </c>
     </row>
   </sheetData>
